--- a/Request2/其他主题词.xlsx
+++ b/Request2/其他主题词.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>s1_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>s1_2</t>
   </si>
@@ -29,7 +26,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>的</t>
+    <t>s1_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信</t>
   </si>
   <si>
     <t>光缆</t>
@@ -38,7 +39,37 @@
     <t>数字</t>
   </si>
   <si>
+    <t>地理</t>
+  </si>
+  <si>
     <t>福建</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>对的</t>
+  </si>
+  <si>
+    <t>龙岩</t>
+  </si>
+  <si>
+    <t>邮电</t>
+  </si>
+  <si>
+    <t>是的</t>
+  </si>
+  <si>
+    <t>电缆</t>
+  </si>
+  <si>
+    <t>蔡淑敏</t>
   </si>
 </sst>
 </file>
@@ -391,7 +422,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -401,29 +432,32 @@
         <v>900</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1257.447355071408</v>
+        <v>1086.7290370648977</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -434,8 +468,109 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>796.8939703624317</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1538.9679343856678</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1538.9679343856678</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>890.9545442950499</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1201.3935082885962</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1463.1384115635115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1463.1384115635115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
